--- a/archivos/tabla_roles.xlsx
+++ b/archivos/tabla_roles.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CB930D-7D90-4A1A-A853-0A30B58BB0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70186259-6DC2-4632-A091-1CF3D4790825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="72">
   <si>
     <t>dir</t>
   </si>
@@ -212,6 +212,30 @@
   </si>
   <si>
     <t>views/months.php</t>
+  </si>
+  <si>
+    <t>views/report_pb_clavel.php</t>
+  </si>
+  <si>
+    <t>views/report_pb_siembras.php</t>
+  </si>
+  <si>
+    <t>views/report_pb_dirigidas.php</t>
+  </si>
+  <si>
+    <t>views/report_pb_curvas.php</t>
+  </si>
+  <si>
+    <t>views/report_pb_rosas.php</t>
+  </si>
+  <si>
+    <t>views/tika_compara_prod.php</t>
+  </si>
+  <si>
+    <t>views/tika_desechos.php</t>
+  </si>
+  <si>
+    <t>views/tika_siembras_erradicaciones.php</t>
   </si>
 </sst>
 </file>
@@ -276,9 +300,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -316,9 +340,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,26 +375,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,26 +410,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -596,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B184"/>
+  <dimension ref="A1:B200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
@@ -2078,6 +2068,134 @@
       </c>
       <c r="B184">
         <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>64</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>64</v>
+      </c>
+      <c r="B186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>65</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>65</v>
+      </c>
+      <c r="B188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>66</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>66</v>
+      </c>
+      <c r="B190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>67</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>67</v>
+      </c>
+      <c r="B192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>68</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>68</v>
+      </c>
+      <c r="B194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>69</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>69</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>70</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>70</v>
+      </c>
+      <c r="B198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>71</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>71</v>
+      </c>
+      <c r="B200">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
